--- a/FrontEnd/sd_checklist_meta2.xlsx
+++ b/FrontEnd/sd_checklist_meta2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gui\Desktop\SD\Projeto-SD\FrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB1124-C6E7-4FD4-9995-BDD3F7EBF9F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C24715-033D-48ED-869B-BE4EB7A38852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8910" yWindow="2160" windowWidth="25605" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>REST</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Utilização em smartphone ou tablet (2pts)</t>
-  </si>
-  <si>
-    <t>fazer no editar</t>
   </si>
 </sst>
 </file>
@@ -716,7 +713,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -760,7 +757,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -784,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -833,7 +830,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
@@ -1084,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="5">
-        <f t="shared" ref="BO5:CT5" si="2">BO6+BO18+BO22+BO27+BO32+BO37</f>
+        <f t="shared" ref="BO5:BR5" si="2">BO6+BO18+BO22+BO27+BO32+BO37</f>
         <v>0</v>
       </c>
       <c r="BP5" s="5">
@@ -1113,7 +1110,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:AJ6" si="3">SUM(E7:E17)</f>
@@ -1372,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="BQ6" s="1">
-        <f t="shared" ref="BQ6:CV6" si="5">SUM(BQ7:BQ17)</f>
+        <f t="shared" ref="BQ6:BR6" si="5">SUM(BQ7:BQ17)</f>
         <v>0</v>
       </c>
       <c r="BR6" s="1">
@@ -1420,11 +1417,8 @@
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
+      <c r="C10" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:70" s="3" customFormat="1" ht="18.75">
@@ -1489,7 +1483,7 @@
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>5</v>
       </c>
     </row>
@@ -2083,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="1">
-        <f t="shared" ref="BO22:CT22" si="10">SUM(BO23:BO26)</f>
+        <f t="shared" ref="BO22:BR22" si="10">SUM(BO23:BO26)</f>
         <v>0</v>
       </c>
       <c r="BP22" s="1">

--- a/FrontEnd/sd_checklist_meta2.xlsx
+++ b/FrontEnd/sd_checklist_meta2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gui\Desktop\SD\Projeto-SD\FrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C24715-033D-48ED-869B-BE4EB7A38852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E05A61-077F-4A3C-B182-B4961D7D83C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8910" yWindow="2160" windowWidth="25605" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +285,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +312,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,7 +722,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -757,7 +766,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -782,7 +791,7 @@
   <dimension ref="A1:BR43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1461,7 +1470,7 @@
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="10">
         <v>7</v>
       </c>
     </row>

--- a/FrontEnd/sd_checklist_meta2.xlsx
+++ b/FrontEnd/sd_checklist_meta2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gui\Desktop\SD\Projeto-SD\FrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E05A61-077F-4A3C-B182-B4961D7D83C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C76C7F-A836-4859-AECB-8FC110A73F84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8910" yWindow="2160" windowWidth="25605" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +219,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +279,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,9 +306,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,7 +713,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -766,7 +757,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -791,7 +782,7 @@
   <dimension ref="A1:BR43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -839,7 +830,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
@@ -1119,7 +1110,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:AJ6" si="3">SUM(E7:E17)</f>
@@ -1470,7 +1461,7 @@
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1503,7 +1494,7 @@
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>5</v>
       </c>
     </row>

--- a/FrontEnd/sd_checklist_meta2.xlsx
+++ b/FrontEnd/sd_checklist_meta2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gui\Desktop\SD\Projeto-SD\FrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C76C7F-A836-4859-AECB-8FC110A73F84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CBA2BC-567B-4064-9221-10AA6A2896C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8910" yWindow="2160" windowWidth="25605" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -202,8 +202,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +292,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +319,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -781,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -826,11 +845,11 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:AH5" si="0">C6+C18+C22+C27+C32+C37</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
@@ -1511,11 +1530,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:BO18" si="6">SUM(D19:D21)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D18:BO18" si="6">SUM(E19:E21)</f>
         <v>0</v>
       </c>
       <c r="F18" s="1">
@@ -1786,7 +1804,7 @@
       <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1808,7 +1826,7 @@
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2150,8 +2168,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="11"/>
@@ -2468,14 +2485,14 @@
       </c>
       <c r="C32" s="1">
         <f>SUM(C33:C36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:BO32" si="14">SUM(D33:D36)</f>
-        <v>0</v>
+        <f>SUM(D33:D36)</f>
+        <v>4</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E32:BO32" si="14">SUM(E33:E36)</f>
         <v>0</v>
       </c>
       <c r="F32" s="1">
@@ -2748,10 +2765,22 @@
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:70" s="3" customFormat="1" ht="18.75">
       <c r="B35" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:70" s="3" customFormat="1" ht="18.75">

--- a/FrontEnd/sd_checklist_meta2.xlsx
+++ b/FrontEnd/sd_checklist_meta2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gui\Desktop\SD\Projeto-SD\FrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CBA2BC-567B-4064-9221-10AA6A2896C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C384E7E-AC2B-49CC-AEE7-6C1DE8932CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="2160" windowWidth="25605" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-21" sheetId="3" r:id="rId1"/>
@@ -210,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +298,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +331,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +741,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -776,7 +785,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -800,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -849,7 +858,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
@@ -1530,10 +1539,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="D18:BO18" si="6">SUM(E19:E21)</f>
+        <f t="shared" ref="E18:BO18" si="6">SUM(E19:E21)</f>
         <v>0</v>
       </c>
       <c r="F18" s="1">
@@ -1804,7 +1813,7 @@
       <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1815,7 +1824,7 @@
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2118,7 +2127,7 @@
       <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2129,7 +2138,7 @@
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2140,7 +2149,7 @@
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2151,7 +2160,7 @@
       <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2442,7 +2451,7 @@
       <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2453,7 +2462,7 @@
       <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2464,7 +2473,7 @@
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2475,7 +2484,7 @@
       <c r="B31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="8">
         <v>2</v>
       </c>
     </row>
